--- a/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
+++ b/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24240" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24240" windowHeight="12555" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="변환가능목록" sheetId="1" r:id="rId1"/>
-    <sheet name="가이드 방침" sheetId="2" r:id="rId2"/>
-    <sheet name="스토리보드" sheetId="3" r:id="rId3"/>
-    <sheet name="기능" sheetId="4" r:id="rId4"/>
+    <sheet name="카테고리별 기능 정리" sheetId="5" r:id="rId2"/>
+    <sheet name="가이드 방침" sheetId="2" r:id="rId3"/>
+    <sheet name="스토리보드" sheetId="3" r:id="rId4"/>
+    <sheet name="기능" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="356">
   <si>
     <t>카테고리</t>
   </si>
@@ -426,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 항목 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,15 +435,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테마 저작 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저작된 테마를 바로 자신의 핸드폰에 적용 하는 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1083,6 +1072,193 @@
   </si>
   <si>
     <t>thm_more_function_item_gamecenter_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-I-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-I-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-I-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-I-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-I-005</t>
+  </si>
+  <si>
+    <t>KT-I-006</t>
+  </si>
+  <si>
+    <t>KT-I-007</t>
+  </si>
+  <si>
+    <t>KT-I-008</t>
+  </si>
+  <si>
+    <t>KT-I-009</t>
+  </si>
+  <si>
+    <t>KT-I-010</t>
+  </si>
+  <si>
+    <t>KT-I-011</t>
+  </si>
+  <si>
+    <t>KT-I-012</t>
+  </si>
+  <si>
+    <t>KT-I-013</t>
+  </si>
+  <si>
+    <t>KT-I-014</t>
+  </si>
+  <si>
+    <t>KT-I-015</t>
+  </si>
+  <si>
+    <t>KT-I-016</t>
+  </si>
+  <si>
+    <t>KT-I-017</t>
+  </si>
+  <si>
+    <t>KT-I-018</t>
+  </si>
+  <si>
+    <t>KT-I-019</t>
+  </si>
+  <si>
+    <t>KT-I-020</t>
+  </si>
+  <si>
+    <t>KT-I-021</t>
+  </si>
+  <si>
+    <t>KT-I-022</t>
+  </si>
+  <si>
+    <t>KT-I-023</t>
+  </si>
+  <si>
+    <t>KT-I-024</t>
+  </si>
+  <si>
+    <t>KT-I-025</t>
+  </si>
+  <si>
+    <t>KT-I-026</t>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미디어선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 미리보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 View, 다운로드 카운트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 카카오톡 테마 관리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 테마 순위 리스트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작된 테마를 바로 자신의 핸드폰에 적용 하는 기능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 저작 기능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트위터, 페이스북 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#색상, 이미지등 모든 화면 설정을 한 화면에서 저작/수정 할 수 있는 기능.
+#카테고리별 특정 화면 선택한곳을 수정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 로그인 시스템과 연동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 검색 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 별점 기능 (★★★★☆) 총 5개 까지 (추천같은거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,6 +1438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1781,7 @@
         <v>119</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1632,16 +1811,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1651,16 +1830,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1670,16 +1849,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1689,35 +1868,35 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1727,16 +1906,16 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1746,16 +1925,16 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1765,14 +1944,14 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1782,14 +1961,14 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1799,16 +1978,16 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1818,14 +1997,14 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1835,14 +2014,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1852,16 +2031,16 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1871,16 +2050,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1890,16 +2069,16 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1909,14 +2088,14 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1926,16 +2105,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1947,16 +2126,16 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1966,16 +2145,16 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1985,14 +2164,14 @@
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -2002,14 +2181,14 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2019,14 +2198,14 @@
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2036,14 +2215,14 @@
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2055,16 +2234,16 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -2074,16 +2253,16 @@
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -2093,16 +2272,16 @@
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -2112,16 +2291,16 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -2131,14 +2310,14 @@
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -2148,16 +2327,16 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -2167,16 +2346,16 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2186,16 +2365,16 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2205,14 +2384,14 @@
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -2222,14 +2401,14 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -2239,16 +2418,16 @@
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2258,16 +2437,16 @@
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2277,16 +2456,16 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -2296,16 +2475,16 @@
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -2315,16 +2494,16 @@
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2334,16 +2513,16 @@
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2353,16 +2532,16 @@
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -2372,16 +2551,16 @@
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2391,16 +2570,16 @@
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2410,16 +2589,16 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -2429,16 +2608,16 @@
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -2448,16 +2627,16 @@
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2469,16 +2648,16 @@
         <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -2488,14 +2667,14 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -2505,14 +2684,14 @@
         <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2522,14 +2701,14 @@
         <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2539,14 +2718,14 @@
         <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2556,14 +2735,14 @@
         <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -2573,14 +2752,14 @@
         <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2590,14 +2769,14 @@
         <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2607,14 +2786,14 @@
         <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2626,14 +2805,14 @@
         <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -2643,14 +2822,14 @@
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -2660,14 +2839,14 @@
         <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -2679,16 +2858,16 @@
         <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -2698,14 +2877,14 @@
         <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -2715,14 +2894,14 @@
         <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -2732,14 +2911,14 @@
         <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2749,16 +2928,16 @@
         <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -2770,16 +2949,16 @@
         <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2789,16 +2968,16 @@
         <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H68" s="2"/>
     </row>
@@ -2808,16 +2987,16 @@
         <v>80</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -2827,14 +3006,14 @@
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -2844,14 +3023,14 @@
         <v>81</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -2861,14 +3040,14 @@
         <v>82</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2878,14 +3057,14 @@
         <v>83</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -2895,14 +3074,14 @@
         <v>84</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -2912,14 +3091,14 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -2929,16 +3108,16 @@
         <v>86</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -2948,14 +3127,14 @@
         <v>87</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -2965,16 +3144,16 @@
         <v>88</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -2984,16 +3163,16 @@
         <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -3005,16 +3184,16 @@
         <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -3024,14 +3203,14 @@
         <v>92</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H81" s="2"/>
     </row>
@@ -3041,14 +3220,14 @@
         <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H82" s="2"/>
     </row>
@@ -3058,14 +3237,14 @@
         <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -3075,14 +3254,14 @@
         <v>95</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H84" s="2"/>
     </row>
@@ -3094,16 +3273,16 @@
         <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -3115,16 +3294,16 @@
         <v>99</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -3134,16 +3313,16 @@
         <v>100</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H87" s="2"/>
     </row>
@@ -3153,14 +3332,14 @@
         <v>101</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -3170,14 +3349,14 @@
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H89" s="2"/>
     </row>
@@ -3187,16 +3366,16 @@
         <v>103</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -3206,16 +3385,16 @@
         <v>104</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H91" s="2"/>
     </row>
@@ -3225,14 +3404,14 @@
         <v>105</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -3242,16 +3421,16 @@
         <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -3263,16 +3442,16 @@
         <v>108</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3282,16 +3461,16 @@
         <v>109</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -3301,14 +3480,14 @@
         <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -3318,14 +3497,14 @@
         <v>111</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H97" s="2"/>
     </row>
@@ -3335,14 +3514,14 @@
         <v>112</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H98" s="2"/>
     </row>
@@ -3352,14 +3531,14 @@
         <v>113</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H99" s="2"/>
     </row>
@@ -3369,14 +3548,14 @@
         <v>114</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H100" s="2"/>
     </row>
@@ -3386,14 +3565,14 @@
         <v>115</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H101" s="2"/>
     </row>
@@ -3403,14 +3582,14 @@
         <v>116</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -3434,6 +3613,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3466,12 +3776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3516,246 +3826,266 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="67.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.125" customWidth="1"/>
     <col min="5" max="5" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
-        <v>1</v>
+    </row>
+    <row r="3" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>2</v>
+      <c r="B4" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>12</v>
+      <c r="B14" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>13</v>
+      <c r="B15" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>14</v>
+      <c r="B16" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>15</v>
+      <c r="B17" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>16</v>
+      <c r="B18" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>17</v>
+      <c r="B19" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>18</v>
+      <c r="B20" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>19</v>
+      <c r="B21" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>20</v>
+      <c r="B22" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>21</v>
+      <c r="B23" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>22</v>
+      <c r="B24" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>23</v>
+      <c r="B25" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>24</v>
+      <c r="B26" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>25</v>
+      <c r="B27" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>26</v>
+      <c r="B28" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3764,5 +4094,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
+++ b/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="360">
   <si>
     <t>카테고리</t>
   </si>
@@ -436,10 +436,6 @@
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActiveX 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1259,6 +1255,26 @@
   </si>
   <si>
     <t>테마 별점 기능 (★★★★☆) 총 5개 까지 (추천같은거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 다운로드(아이폰에선 이방식이 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(국가별,일자별,다운로드 횟수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡이랑 연동할수 있음 좋겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 만든 테마리스트 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름,저작자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1427,6 +1443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,9 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B21"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1781,11 +1797,11 @@
         <v>119</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1806,1462 +1822,1462 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H84" s="2"/>
     </row>
@@ -3273,323 +3289,323 @@
         <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="12"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="12"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="12"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="12"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B92" s="12"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="12"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="12"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="12"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="12"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="12"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="13"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -3634,7 +3650,7 @@
     </row>
     <row r="3" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3642,7 +3658,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3650,7 +3666,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3658,7 +3674,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3666,7 +3682,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3674,7 +3690,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3682,7 +3698,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3690,7 +3706,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3698,7 +3714,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3706,7 +3722,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3714,7 +3730,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3722,7 +3738,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3730,7 +3746,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3781,7 +3797,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3830,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3845,7 +3861,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>132</v>
@@ -3859,121 +3875,129 @@
     </row>
     <row r="3" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>353</v>
+        <v>311</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3981,7 +4005,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3989,7 +4013,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3997,7 +4021,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4005,7 +4029,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4013,7 +4037,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4021,7 +4045,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4029,7 +4053,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4037,7 +4061,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4045,7 +4069,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4053,7 +4077,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4061,7 +4085,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4069,7 +4093,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4077,7 +4101,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4085,7 +4109,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>

--- a/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
+++ b/document/guide/카카오테마 적용 분석 가이드 V0.02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24240" windowHeight="12555" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24240" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="변환가능목록" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="스토리보드" sheetId="3" r:id="rId4"/>
     <sheet name="기능" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">변환가능목록!$B$6:$I$105</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="466">
   <si>
     <t>카테고리</t>
   </si>
@@ -1275,6 +1278,335 @@
   </si>
   <si>
     <t>이름,저작자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-R-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 명명법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT : KakaoTheme 약자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R : Resource 약자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001 : 구분 숫자 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-R-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-R-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-R-004</t>
+  </si>
+  <si>
+    <t>KT-R-005</t>
+  </si>
+  <si>
+    <t>KT-R-006</t>
+  </si>
+  <si>
+    <t>KT-R-007</t>
+  </si>
+  <si>
+    <t>KT-R-008</t>
+  </si>
+  <si>
+    <t>KT-R-009</t>
+  </si>
+  <si>
+    <t>KT-R-010</t>
+  </si>
+  <si>
+    <t>KT-R-011</t>
+  </si>
+  <si>
+    <t>KT-R-012</t>
+  </si>
+  <si>
+    <t>KT-R-013</t>
+  </si>
+  <si>
+    <t>KT-R-014</t>
+  </si>
+  <si>
+    <t>KT-R-015</t>
+  </si>
+  <si>
+    <t>KT-R-016</t>
+  </si>
+  <si>
+    <t>KT-R-017</t>
+  </si>
+  <si>
+    <t>KT-R-018</t>
+  </si>
+  <si>
+    <t>KT-R-019</t>
+  </si>
+  <si>
+    <t>KT-R-020</t>
+  </si>
+  <si>
+    <t>KT-R-021</t>
+  </si>
+  <si>
+    <t>KT-R-022</t>
+  </si>
+  <si>
+    <t>KT-R-023</t>
+  </si>
+  <si>
+    <t>KT-R-024</t>
+  </si>
+  <si>
+    <t>KT-R-025</t>
+  </si>
+  <si>
+    <t>KT-R-026</t>
+  </si>
+  <si>
+    <t>KT-R-027</t>
+  </si>
+  <si>
+    <t>KT-R-028</t>
+  </si>
+  <si>
+    <t>KT-R-029</t>
+  </si>
+  <si>
+    <t>KT-R-030</t>
+  </si>
+  <si>
+    <t>KT-R-031</t>
+  </si>
+  <si>
+    <t>KT-R-032</t>
+  </si>
+  <si>
+    <t>KT-R-033</t>
+  </si>
+  <si>
+    <t>KT-R-034</t>
+  </si>
+  <si>
+    <t>KT-R-035</t>
+  </si>
+  <si>
+    <t>KT-R-036</t>
+  </si>
+  <si>
+    <t>KT-R-037</t>
+  </si>
+  <si>
+    <t>KT-R-038</t>
+  </si>
+  <si>
+    <t>KT-R-039</t>
+  </si>
+  <si>
+    <t>KT-R-040</t>
+  </si>
+  <si>
+    <t>KT-R-041</t>
+  </si>
+  <si>
+    <t>KT-R-042</t>
+  </si>
+  <si>
+    <t>KT-R-043</t>
+  </si>
+  <si>
+    <t>KT-R-044</t>
+  </si>
+  <si>
+    <t>KT-R-045</t>
+  </si>
+  <si>
+    <t>KT-R-046</t>
+  </si>
+  <si>
+    <t>KT-R-047</t>
+  </si>
+  <si>
+    <t>KT-R-048</t>
+  </si>
+  <si>
+    <t>KT-R-049</t>
+  </si>
+  <si>
+    <t>KT-R-050</t>
+  </si>
+  <si>
+    <t>KT-R-051</t>
+  </si>
+  <si>
+    <t>KT-R-052</t>
+  </si>
+  <si>
+    <t>KT-R-053</t>
+  </si>
+  <si>
+    <t>KT-R-054</t>
+  </si>
+  <si>
+    <t>KT-R-055</t>
+  </si>
+  <si>
+    <t>KT-R-056</t>
+  </si>
+  <si>
+    <t>KT-R-057</t>
+  </si>
+  <si>
+    <t>KT-R-058</t>
+  </si>
+  <si>
+    <t>KT-R-059</t>
+  </si>
+  <si>
+    <t>KT-R-060</t>
+  </si>
+  <si>
+    <t>KT-R-061</t>
+  </si>
+  <si>
+    <t>KT-R-063</t>
+  </si>
+  <si>
+    <t>KT-R-064</t>
+  </si>
+  <si>
+    <t>KT-R-065</t>
+  </si>
+  <si>
+    <t>KT-R-066</t>
+  </si>
+  <si>
+    <t>KT-R-067</t>
+  </si>
+  <si>
+    <t>KT-R-068</t>
+  </si>
+  <si>
+    <t>KT-R-069</t>
+  </si>
+  <si>
+    <t>KT-R-070</t>
+  </si>
+  <si>
+    <t>KT-R-071</t>
+  </si>
+  <si>
+    <t>KT-R-072</t>
+  </si>
+  <si>
+    <t>KT-R-073</t>
+  </si>
+  <si>
+    <t>KT-R-074</t>
+  </si>
+  <si>
+    <t>KT-R-075</t>
+  </si>
+  <si>
+    <t>KT-R-076</t>
+  </si>
+  <si>
+    <t>KT-R-077</t>
+  </si>
+  <si>
+    <t>KT-R-078</t>
+  </si>
+  <si>
+    <t>KT-R-079</t>
+  </si>
+  <si>
+    <t>KT-R-080</t>
+  </si>
+  <si>
+    <t>KT-R-081</t>
+  </si>
+  <si>
+    <t>KT-R-082</t>
+  </si>
+  <si>
+    <t>KT-R-083</t>
+  </si>
+  <si>
+    <t>KT-R-084</t>
+  </si>
+  <si>
+    <t>KT-R-085</t>
+  </si>
+  <si>
+    <t>KT-R-086</t>
+  </si>
+  <si>
+    <t>KT-R-087</t>
+  </si>
+  <si>
+    <t>KT-R-088</t>
+  </si>
+  <si>
+    <t>KT-R-089</t>
+  </si>
+  <si>
+    <t>KT-R-090</t>
+  </si>
+  <si>
+    <t>KT-R-091</t>
+  </si>
+  <si>
+    <t>KT-R-092</t>
+  </si>
+  <si>
+    <t>KT-R-093</t>
+  </si>
+  <si>
+    <t>KT-R-094</t>
+  </si>
+  <si>
+    <t>KT-R-095</t>
+  </si>
+  <si>
+    <t>KT-R-096</t>
+  </si>
+  <si>
+    <t>KT-R-097</t>
+  </si>
+  <si>
+    <t>KT-R-098</t>
+  </si>
+  <si>
+    <t>KT-R-099</t>
+  </si>
+  <si>
+    <t>KT-R-062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I : Item 약자 [Item을 기능이라고 정의 했습니다.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16*16, png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1647,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1403,13 +1735,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,6 +1913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1457,6 +1927,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1759,1871 +2256,2199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H102"/>
+  <dimension ref="B2:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="7" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="1" t="s">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="1" t="s">
+      <c r="H9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="1" t="s">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="1" t="s">
+      <c r="H15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="1" t="s">
+      <c r="H16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="1" t="s">
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="1" t="s">
+      <c r="H18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="1" t="s">
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="1" t="s">
+      <c r="H21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="1" t="s">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="1" t="s">
+      <c r="H23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="H24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="1" t="s">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="1" t="s">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="1" t="s">
+      <c r="H27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="1" t="s">
+      <c r="H28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="1" t="s">
+      <c r="H29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
+      <c r="H30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="1" t="s">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="1" t="s">
+      <c r="H32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="1" t="s">
+      <c r="H34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="1" t="s">
+      <c r="H35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="1" t="s">
+      <c r="H36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="1" t="s">
+      <c r="H37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="1" t="s">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="1" t="s">
+      <c r="H39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="1" t="s">
+      <c r="H40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="1" t="s">
+      <c r="H41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="1" t="s">
+      <c r="H42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="1" t="s">
+      <c r="H43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="1" t="s">
+      <c r="G44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="1" t="s">
+      <c r="G45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="1" t="s">
+      <c r="G46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="1" t="s">
+      <c r="G47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="1" t="s">
+      <c r="G48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="1" t="s">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="1" t="s">
+      <c r="G50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="1" t="s">
+      <c r="G51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="15"/>
+      <c r="C52" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
+      <c r="G52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C53" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
-      <c r="C51" s="1" t="s">
+      <c r="H53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="1" t="s">
+      <c r="H54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="2" t="s">
+      <c r="F55" s="1"/>
+      <c r="G55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="1" t="s">
+      <c r="H55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="2" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="1" t="s">
+      <c r="H56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2" t="s">
+      <c r="F57" s="1"/>
+      <c r="G57" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
-      <c r="C55" s="1" t="s">
+      <c r="H57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
-      <c r="C56" s="1" t="s">
+      <c r="H58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="1" t="s">
+      <c r="H59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="1" t="s">
+      <c r="H60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
+      <c r="C61" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2" t="s">
+      <c r="F61" s="1"/>
+      <c r="G61" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+      <c r="H61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C62" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="1" t="s">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="2" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="1" t="s">
+      <c r="H63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
+      <c r="C64" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="2" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="12" t="s">
+      <c r="H64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C65" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="1" t="s">
+      <c r="H65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="2" t="s">
+      <c r="F66" s="1"/>
+      <c r="G66" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="1" t="s">
+      <c r="H66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="2" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="1" t="s">
+      <c r="H67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="2" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="1" t="s">
+      <c r="H68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="15"/>
+      <c r="C69" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="12" t="s">
+      <c r="G69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C70" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="13"/>
-      <c r="C68" s="1" t="s">
+      <c r="H70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
-      <c r="C69" s="1" t="s">
+      <c r="H71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="1" t="s">
+      <c r="G72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="13"/>
-      <c r="C71" s="1" t="s">
+      <c r="H73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2" t="s">
+      <c r="F74" s="1"/>
+      <c r="G74" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="13"/>
-      <c r="C72" s="1" t="s">
+      <c r="H74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="13"/>
-      <c r="C73" s="1" t="s">
+      <c r="H75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2" t="s">
+      <c r="F76" s="1"/>
+      <c r="G76" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="13"/>
-      <c r="C74" s="1" t="s">
+      <c r="H76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="1" t="s">
+      <c r="H77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="13"/>
-      <c r="C76" s="1" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="13"/>
-      <c r="C77" s="1" t="s">
+      <c r="G79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="13"/>
-      <c r="C78" s="1" t="s">
+      <c r="F80" s="1"/>
+      <c r="G80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="14"/>
-      <c r="C79" s="1" t="s">
+      <c r="G81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="15"/>
+      <c r="C82" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="12" t="s">
+      <c r="G82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C83" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
-      <c r="C81" s="1" t="s">
+      <c r="H83" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="2" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
-      <c r="C82" s="1" t="s">
+      <c r="H84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="2" t="s">
+      <c r="F85" s="1"/>
+      <c r="G85" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="13"/>
-      <c r="C83" s="1" t="s">
+      <c r="H85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="2" t="s">
+      <c r="F86" s="1"/>
+      <c r="G86" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
-      <c r="C84" s="1" t="s">
+      <c r="H86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="15"/>
+      <c r="C87" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="5" t="s">
+      <c r="F87" s="1"/>
+      <c r="G87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C88" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="12" t="s">
+      <c r="H88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C89" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="13"/>
-      <c r="C87" s="1" t="s">
+      <c r="G89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="13"/>
-      <c r="C88" s="1" t="s">
+      <c r="G90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="2" t="s">
+      <c r="F91" s="1"/>
+      <c r="G91" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
-      <c r="C89" s="1" t="s">
+      <c r="H91" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="2" t="s">
+      <c r="F92" s="1"/>
+      <c r="G92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
-      <c r="C90" s="1" t="s">
+      <c r="H92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="13"/>
-      <c r="C91" s="1" t="s">
+      <c r="H93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B92" s="13"/>
-      <c r="C92" s="1" t="s">
+      <c r="G94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="1" t="s">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="15"/>
+      <c r="C96" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="12" t="s">
+      <c r="H96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C97" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="13"/>
-      <c r="C95" s="1" t="s">
+      <c r="G97" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="13"/>
-      <c r="C96" s="1" t="s">
+      <c r="G98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="13"/>
-      <c r="C97" s="1" t="s">
+      <c r="F99" s="1"/>
+      <c r="G99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="13"/>
-      <c r="C98" s="1" t="s">
+      <c r="F100" s="1"/>
+      <c r="G100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="14"/>
+      <c r="C101" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="13"/>
-      <c r="C99" s="1" t="s">
+      <c r="F101" s="1"/>
+      <c r="G101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="14"/>
+      <c r="C102" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="13"/>
-      <c r="C100" s="1" t="s">
+      <c r="F102" s="1"/>
+      <c r="G102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="14"/>
+      <c r="C103" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="13"/>
-      <c r="C101" s="1" t="s">
+      <c r="F103" s="1"/>
+      <c r="G103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="14"/>
+      <c r="C104" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="14"/>
-      <c r="C102" s="1" t="s">
+      <c r="F104" s="1"/>
+      <c r="G104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="15"/>
+      <c r="C105" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H102" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I105" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="B6:I105"/>
   <mergeCells count="10">
-    <mergeCell ref="B67:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="B94:B102"/>
-    <mergeCell ref="B4:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3632,7 +4457,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3797,7 +4622,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3844,10 +4669,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3859,177 +4684,168 @@
     <col min="5" max="5" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="7" spans="2:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>359</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4037,7 +4853,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4045,7 +4861,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4053,7 +4869,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4061,7 +4877,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4069,7 +4885,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4077,7 +4893,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4085,7 +4901,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4093,7 +4909,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4101,7 +4917,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4109,11 +4925,43 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
